--- a/test_env/dashboard_creation/aircraft.xlsx
+++ b/test_env/dashboard_creation/aircraft.xlsx
@@ -685,7 +685,7 @@
         <v>0.9266644115706986</v>
       </c>
       <c r="F9" t="n">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="G9" t="n">
         <v>0.8462065407310719</v>
